--- a/data/excel_doc/wkdl_sr_id_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_id_lims.xlsx
@@ -446,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2308140019</t>
+          <t>GS2308150100</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/wkdl_sr_id_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,13 +443,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GS2308150100</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/wkdl_sr_id_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_id_lims.xlsx
@@ -1,34 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\世和LIMS脚本\LIMS_UI_TEST\data\excel_doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB66BE57-72C3-4A39-8B45-BF2E1EB063AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="4935" yWindow="2700" windowWidth="22890" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>lims号</t>
+  </si>
+  <si>
+    <t>当前节点</t>
+  </si>
+  <si>
+    <t>任务单号</t>
+  </si>
+  <si>
+    <t>文库名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KA234L0117-J022</t>
+  </si>
+  <si>
+    <t>KA234L0114-J022</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2308240001</t>
+  </si>
+  <si>
+    <t>GS2308240002</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FF606266"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +94,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,42 +398,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>lims号</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>富集名称</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>当前节点</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>任务单号</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/excel_doc/wkdl_sr_id_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_id_lims.xlsx
@@ -1,82 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\世和LIMS脚本\LIMS_UI_TEST\data\excel_doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB66BE57-72C3-4A39-8B45-BF2E1EB063AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="2700" windowWidth="22890" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>lims号</t>
-  </si>
-  <si>
-    <t>当前节点</t>
-  </si>
-  <si>
-    <t>任务单号</t>
-  </si>
-  <si>
-    <t>文库名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KA234L0117-J022</t>
-  </si>
-  <si>
-    <t>KA234L0114-J022</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS2308240001</t>
-  </si>
-  <si>
-    <t>GS2308240002</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF606266"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -94,23 +46,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -398,51 +408,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>lims号</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>文库名称</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>当前节点</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>任务单号</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GS2309050069</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>KA23950069-J022</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/excel_doc/wkdl_sr_id_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309050069</t>
+          <t>GS2309050076</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KA23950069-J022</t>
+          <t>KA23950076-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/wkdl_sr_id_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309050076</t>
+          <t>GS2309060008</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KA23950076-J022</t>
+          <t>KA23960008-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/wkdl_sr_id_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309060008</t>
+          <t>GS2309070040</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KA23960008-J022</t>
+          <t>KA23970034-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/wkdl_sr_id_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,18 +443,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GS2309070040</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>KA23970034-J022</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/wkdl_sr_id_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,18 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GS2309080096</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>KA23980096-J022</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/wkdl_sr_id_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309080096</t>
+          <t>GS2309110005</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KA23980096-J022</t>
+          <t>KA239A0005-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/wkdl_sr_id_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309110005</t>
+          <t>GS2309120061</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KA239A0005-J022</t>
+          <t>KA239B0061-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/wkdl_sr_id_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309120061</t>
+          <t>GS2309150038</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KA239B0061-J022</t>
+          <t>KA239E0038-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/wkdl_sr_id_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309150038</t>
+          <t>GS2309180006</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KA239E0038-J022</t>
+          <t>KA239H0006-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/wkdl_sr_id_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_id_lims.xlsx
@@ -1,37 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\世和LIMS脚本\LIMS_UI_TEST\data\excel_doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827D96FD-D94A-4644-8A3E-1890AC170446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="33855" yWindow="3495" windowWidth="22890" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>lims号</t>
+  </si>
+  <si>
+    <t>文库名称</t>
+  </si>
+  <si>
+    <t>当前节点</t>
+  </si>
+  <si>
+    <t>任务单号</t>
+  </si>
+  <si>
+    <t>GS2309220016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2309220017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,81 +96,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,42 +402,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>lims号</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>文库名称</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>当前节点</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>任务单号</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/excel_doc/wkdl_sr_id_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_id_lims.xlsx
@@ -1,87 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\世和LIMS脚本\LIMS_UI_TEST\data\excel_doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827D96FD-D94A-4644-8A3E-1890AC170446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="33855" yWindow="3495" windowWidth="22890" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>lims号</t>
-  </si>
-  <si>
-    <t>文库名称</t>
-  </si>
-  <si>
-    <t>当前节点</t>
-  </si>
-  <si>
-    <t>任务单号</t>
-  </si>
-  <si>
-    <t>GS2309220016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS2309220017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,25 +46,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -402,44 +408,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>lims号</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>文库名称</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>当前节点</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>任务单号</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GS2401150009</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>KA241E0009-J022</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/excel_doc/wkdl_sr_id_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2401150009</t>
+          <t>GS2310270048</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KA241E0009-J022</t>
+          <t>KA230S0048-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/wkdl_sr_id_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2310270048</t>
+          <t>GS2401160011</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KA230S0048-J022</t>
+          <t>KA241F0011-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/wkdl_sr_id_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2401160011</t>
+          <t>GS2404290629</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KA241F0011-J022</t>
+          <t>KA244U0629-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/wkdl_sr_id_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2404290629</t>
+          <t>GS2405210049</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KA244U0629-J022</t>
+          <t>KA245L0049-J022</t>
         </is>
       </c>
     </row>
